--- a/结果/DT分类/样本熵/DT_DE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406928F9-DFC0-4B8B-A7D3-20D78F91809A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954D6B7-D414-426E-B1DD-DC2778CD7A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1176" windowWidth="19668" windowHeight="9792" activeTab="4" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="DE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="DE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="DE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +51,10 @@
   </si>
   <si>
     <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前打算用原始脑电信号的及d1-d3的样本熵做一下多属性二分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,6 +613,20 @@
       </c>
       <c r="C36">
         <v>64.935100000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>63.458333333333336</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>62.37225333333334</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>64.661126666666675</v>
       </c>
     </row>
   </sheetData>
@@ -618,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D54D3F-2A9A-40E0-96A8-7AA698201B6A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -800,6 +819,20 @@
       </c>
       <c r="C36">
         <v>87.058800000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>84.583333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>85.925979999999981</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>83.352546666666669</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820BEAC3-8158-4324-8F15-FA8D4321A963}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -992,6 +1025,20 @@
       </c>
       <c r="C36">
         <v>73.170699999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>74</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>76.647873333333337</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>71.299899999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1002,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F7144-152E-4C34-ABD3-A28E4E56C02D}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1184,6 +1231,20 @@
       </c>
       <c r="C36">
         <v>59.302300000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>58.583333333333336</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>60.402079999999991</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>56.661359999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1197,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B284360-955E-4F01-BC41-5C68DD41BB97}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1445,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>47.875</v>
+      </c>
       <c r="C37" s="1">
         <f>AVERAGE(C2:C36)</f>
         <v>35.95021333333333</v>
@@ -1392,6 +1456,41 @@
       <c r="D37" s="1">
         <f>AVERAGE(D2:D36)</f>
         <v>64.501846666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3294F2-BB65-4B6D-A7D6-BF1FB54B021D}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="87.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/结果/DT分类/样本熵/DT_DE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_DE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954D6B7-D414-426E-B1DD-DC2778CD7A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB901BC-5D33-43CF-89E3-43BDB5E8479C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D54D3F-2A9A-40E0-96A8-7AA698201B6A}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820BEAC3-8158-4324-8F15-FA8D4321A963}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1466,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3294F2-BB65-4B6D-A7D6-BF1FB54B021D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1488,9 +1488,186 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>84.375</v>
+      </c>
+      <c r="B2">
+        <v>83.146100000000004</v>
+      </c>
+      <c r="C2">
+        <v>85.915499999999994</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>87.5</v>
+      </c>
+      <c r="B4">
+        <v>87.5</v>
+      </c>
+      <c r="C4">
+        <v>87.5</v>
+      </c>
       <c r="F4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.75</v>
+      </c>
+      <c r="B6">
+        <v>88.372100000000003</v>
+      </c>
+      <c r="C6">
+        <v>89.1892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>87.5</v>
+      </c>
+      <c r="B8">
+        <v>91.549300000000002</v>
+      </c>
+      <c r="C8">
+        <v>84.2697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>87.5</v>
+      </c>
+      <c r="B10">
+        <v>91.463399999999993</v>
+      </c>
+      <c r="C10">
+        <v>83.333299999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>86.875</v>
+      </c>
+      <c r="B15">
+        <v>84.810100000000006</v>
+      </c>
+      <c r="C15">
+        <v>88.888900000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>88.75</v>
+      </c>
+      <c r="B17">
+        <v>89.411799999999999</v>
+      </c>
+      <c r="C17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>84.375</v>
+      </c>
+      <c r="B19">
+        <v>89.0411</v>
+      </c>
+      <c r="C19">
+        <v>80.459800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90.625</v>
+      </c>
+      <c r="B21">
+        <v>87.951800000000006</v>
+      </c>
+      <c r="C21">
+        <v>93.506500000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>88.125</v>
+      </c>
+      <c r="B23">
+        <v>86.25</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>88.505700000000004</v>
+      </c>
+      <c r="C28">
+        <v>80.821899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>86.25</v>
+      </c>
+      <c r="B30">
+        <v>81.481499999999997</v>
+      </c>
+      <c r="C30">
+        <v>91.139200000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>84.375</v>
+      </c>
+      <c r="B32">
+        <v>82.954499999999996</v>
+      </c>
+      <c r="C32">
+        <v>86.111099999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>89.375</v>
+      </c>
+      <c r="B34">
+        <v>89.0411</v>
+      </c>
+      <c r="C34">
+        <v>89.655199999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>85.625</v>
+      </c>
+      <c r="B36">
+        <v>88.732399999999998</v>
+      </c>
+      <c r="C36">
+        <v>83.146100000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>87</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>87.347393333333358</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>86.795759999999987</v>
       </c>
     </row>
   </sheetData>

--- a/结果/DT分类/样本熵/DT_DE_sampen.xlsx
+++ b/结果/DT分类/样本熵/DT_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB901BC-5D33-43CF-89E3-43BDB5E8479C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C6DAF-4DA7-4096-99E1-606F5F85AC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="11496" yWindow="204" windowWidth="13620" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
